--- a/data/trans_dic/POLIPATOLOGIA-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGIA-Estudios-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>36,08; 41,96</t>
+          <t>35,86; 41,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>45,91; 52,17</t>
+          <t>45,77; 52,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>40,49; 47,7</t>
+          <t>41,02; 47,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>52,4; 60,58</t>
+          <t>52,29; 60,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>52,72; 58,06</t>
+          <t>52,61; 57,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>60,91; 66,01</t>
+          <t>60,59; 66,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>60,57; 66,55</t>
+          <t>60,53; 66,67</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>69,63; 74,99</t>
+          <t>69,6; 75,07</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>46,12; 50,21</t>
+          <t>46,02; 50,22</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>55,13; 59,39</t>
+          <t>55,39; 59,46</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>52,71; 57,56</t>
+          <t>53,02; 57,64</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>63,81; 68,44</t>
+          <t>63,78; 68,38</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,76; 12,69</t>
+          <t>9,63; 12,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,88; 17,07</t>
+          <t>13,72; 17,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,44; 19,88</t>
+          <t>16,34; 19,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>25,83; 30,74</t>
+          <t>25,7; 30,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,75; 21,94</t>
+          <t>17,8; 21,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>22,79; 26,91</t>
+          <t>22,67; 26,94</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>24,86; 29,14</t>
+          <t>24,89; 28,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>38,72; 53,8</t>
+          <t>38,45; 51,57</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13,94; 16,5</t>
+          <t>14,04; 16,57</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>18,56; 21,25</t>
+          <t>18,49; 21,24</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>21,02; 23,75</t>
+          <t>21,07; 23,78</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>33,31; 42,16</t>
+          <t>33,25; 42,09</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,58; 14,08</t>
+          <t>8,64; 14,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,37; 14,85</t>
+          <t>8,28; 14,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,88; 22,01</t>
+          <t>15,0; 21,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>23,59; 30,83</t>
+          <t>23,94; 31,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,75; 22,47</t>
+          <t>15,17; 22,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,52; 23,95</t>
+          <t>16,26; 24,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>16,51; 23,77</t>
+          <t>16,49; 23,51</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>34,16; 40,58</t>
+          <t>34,42; 40,95</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,48; 17,16</t>
+          <t>12,3; 16,97</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>13,11; 17,96</t>
+          <t>13,08; 18,13</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>16,48; 21,82</t>
+          <t>16,08; 21,41</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>30,32; 35,15</t>
+          <t>29,97; 34,86</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,38; 21,16</t>
+          <t>18,5; 21,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>22,7; 25,86</t>
+          <t>22,72; 25,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>22,53; 25,48</t>
+          <t>22,41; 25,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>30,86; 34,48</t>
+          <t>30,37; 34,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>31,92; 35,19</t>
+          <t>31,84; 35,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>37,08; 40,28</t>
+          <t>37,01; 40,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>34,44; 37,81</t>
+          <t>34,54; 37,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>45,74; 53,71</t>
+          <t>45,98; 53,3</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>25,72; 27,96</t>
+          <t>25,55; 27,84</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>30,49; 32,78</t>
+          <t>30,54; 32,89</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>29,02; 31,24</t>
+          <t>29,1; 31,3</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>39,35; 43,9</t>
+          <t>39,31; 44,31</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/POLIPATOLOGIA-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGIA-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>35,86; 41,68</t>
+          <t>35,95; 41,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>45,77; 52,6</t>
+          <t>45,6; 52,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>41,02; 47,92</t>
+          <t>41,09; 48,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>52,61; 57,91</t>
+          <t>52,85; 58,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>60,59; 66,15</t>
+          <t>60,66; 66,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>60,53; 66,67</t>
+          <t>60,33; 66,67</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>46,02; 50,22</t>
+          <t>46,27; 50,27</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>55,39; 59,46</t>
+          <t>55,1; 59,46</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>53,02; 57,64</t>
+          <t>53,03; 57,72</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,63; 12,5</t>
+          <t>9,47; 12,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,72; 17,1</t>
+          <t>13,69; 16,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,34; 19,83</t>
+          <t>16,39; 19,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,8; 21,82</t>
+          <t>17,86; 21,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>22,67; 26,94</t>
+          <t>22,56; 26,97</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>24,89; 28,95</t>
+          <t>24,91; 29,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,04; 16,57</t>
+          <t>14,15; 16,47</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>18,49; 21,24</t>
+          <t>18,38; 21,15</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>21,07; 23,78</t>
+          <t>20,91; 23,7</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,64; 14,34</t>
+          <t>8,57; 14,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,28; 14,93</t>
+          <t>8,35; 14,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,0; 21,98</t>
+          <t>14,71; 21,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15,17; 22,4</t>
+          <t>14,95; 22,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,26; 24,18</t>
+          <t>16,58; 24,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>16,49; 23,51</t>
+          <t>16,51; 23,94</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,3; 16,97</t>
+          <t>12,44; 17,01</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>13,08; 18,13</t>
+          <t>13,07; 18,08</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>16,08; 21,41</t>
+          <t>16,57; 21,47</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,5; 21,21</t>
+          <t>18,53; 21,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>22,72; 25,83</t>
+          <t>22,84; 25,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>22,41; 25,36</t>
+          <t>22,4; 25,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>31,84; 35,2</t>
+          <t>31,79; 35,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>37,01; 40,37</t>
+          <t>37,13; 40,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>34,54; 37,96</t>
+          <t>34,41; 37,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>25,55; 27,84</t>
+          <t>25,72; 27,75</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>30,54; 32,89</t>
+          <t>30,47; 32,76</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>29,1; 31,3</t>
+          <t>29,1; 31,28</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">

--- a/data/trans_dic/POLIPATOLOGIA-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGIA-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>35,95; 41,85</t>
+          <t>36,08; 41,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>45,6; 52,23</t>
+          <t>45,91; 52,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>41,09; 48,15</t>
+          <t>40,49; 47,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>52,29; 60,23</t>
+          <t>52,4; 60,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>52,85; 58,12</t>
+          <t>52,72; 58,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>60,66; 66,07</t>
+          <t>60,91; 66,01</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>60,33; 66,67</t>
+          <t>60,57; 66,55</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>69,6; 75,07</t>
+          <t>69,63; 74,99</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>46,27; 50,27</t>
+          <t>46,12; 50,21</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>55,1; 59,46</t>
+          <t>55,13; 59,39</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>53,03; 57,72</t>
+          <t>52,71; 57,56</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>63,78; 68,38</t>
+          <t>63,81; 68,44</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,47; 12,66</t>
+          <t>9,76; 12,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,69; 16,99</t>
+          <t>13,88; 17,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,39; 19,78</t>
+          <t>16,44; 19,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>25,7; 30,82</t>
+          <t>25,83; 30,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,86; 21,88</t>
+          <t>17,75; 21,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>22,56; 26,97</t>
+          <t>22,79; 26,91</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>24,91; 29,04</t>
+          <t>24,86; 29,14</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>38,45; 51,57</t>
+          <t>38,72; 53,8</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,15; 16,47</t>
+          <t>13,94; 16,5</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>18,38; 21,15</t>
+          <t>18,56; 21,25</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>20,91; 23,7</t>
+          <t>21,02; 23,75</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>33,25; 42,09</t>
+          <t>33,31; 42,16</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,57; 14,1</t>
+          <t>8,58; 14,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,35; 14,35</t>
+          <t>8,37; 14,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,71; 21,73</t>
+          <t>14,88; 22,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>23,94; 31,24</t>
+          <t>23,59; 30,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,95; 22,42</t>
+          <t>14,75; 22,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,58; 24,11</t>
+          <t>16,52; 23,95</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>16,51; 23,94</t>
+          <t>16,51; 23,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>34,42; 40,95</t>
+          <t>34,16; 40,58</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,44; 17,01</t>
+          <t>12,48; 17,16</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>13,07; 18,08</t>
+          <t>13,11; 17,96</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>16,57; 21,47</t>
+          <t>16,48; 21,82</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>29,97; 34,86</t>
+          <t>30,32; 35,15</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,53; 21,24</t>
+          <t>18,38; 21,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>22,84; 25,98</t>
+          <t>22,7; 25,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>22,4; 25,41</t>
+          <t>22,53; 25,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>30,37; 34,6</t>
+          <t>30,86; 34,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>31,79; 35,09</t>
+          <t>31,92; 35,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>37,13; 40,47</t>
+          <t>37,08; 40,28</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>34,41; 37,84</t>
+          <t>34,44; 37,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>45,98; 53,3</t>
+          <t>45,74; 53,71</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>25,72; 27,75</t>
+          <t>25,72; 27,96</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>30,47; 32,76</t>
+          <t>30,49; 32,78</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>29,1; 31,28</t>
+          <t>29,02; 31,24</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>39,31; 44,31</t>
+          <t>39,35; 43,9</t>
         </is>
       </c>
     </row>
